--- a/AdvisorManagement/Upload/CVHT_Phancong_2022-2023.xlsx
+++ b/AdvisorManagement/Upload/CVHT_Phancong_2022-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1839333A-40DE-48DA-B47F-957E90EC3A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D684D585-AE37-45E9-A753-8386B135A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>TRƯỜNG ĐẠI HỌC VĂN LANG</t>
   </si>
@@ -49,52 +49,16 @@
     <t>MÃ LỚP</t>
   </si>
   <si>
-    <t>TP.HCM, ngày   tháng   năm 2023</t>
-  </si>
-  <si>
-    <t>Ban chủ nhiệm khoa</t>
-  </si>
-  <si>
-    <t>Trợ lý CTSV</t>
-  </si>
-  <si>
-    <t>HÀ ĐỒNG HƯNG</t>
-  </si>
-  <si>
-    <t>hung.hd@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>71K28CNTT25,26,27,28</t>
-  </si>
-  <si>
-    <t>HUỲNH THANH TUẤN</t>
-  </si>
-  <si>
-    <t>tuan.ht@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>71K27CNTT07,22,23,24</t>
-  </si>
-  <si>
-    <t>hung.hd_cntt</t>
-  </si>
-  <si>
     <t>NGUYỄN THẾ QUANG</t>
   </si>
   <si>
-    <t>quang.nt@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>K25T-PM1,2</t>
-  </si>
-  <si>
-    <t>quang.nt_cntt</t>
-  </si>
-  <si>
-    <t>K25T-PM1,2,5,6</t>
-  </si>
-  <si>
-    <t>tuan.ht_cntt</t>
+    <t>ha.nt@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>K25T-PM100</t>
+  </si>
+  <si>
+    <t>ha.nt_cntt</t>
   </si>
 </sst>
 </file>
@@ -171,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -235,13 +199,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -291,15 +264,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -307,6 +271,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,7 +598,7 @@
   <dimension ref="A1:AZ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8"/>
@@ -644,72 +614,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.8" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="22.8" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="22.8" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -735,70 +681,40 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8">
-        <v>2</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="9"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8">
-        <v>4</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4"/>
@@ -807,46 +723,30 @@
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="25.8" customHeight="1">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1">
       <c r="C12" s="7"/>
-      <c r="D12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="19"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="18"/>
+      <c r="A13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="16" spans="1:7">
       <c r="G16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D12:E12"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{EDCF8A42-A937-4023-817C-6C068161EE6C}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{5CB6FF40-9349-41FF-A4DA-A95A42D28F02}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{C3DFB2CC-42F7-4F1E-83B1-70C929589C95}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{CB2DC968-B366-4FCC-BDDD-9E2F7E09B094}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{CB2DC968-B366-4FCC-BDDD-9E2F7E09B094}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
